--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETZ\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4688CFEA-A2FC-4271-8892-AD8D578D5FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2CCA5-03D7-48AF-B493-2C7D16F62037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -123,27 +123,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int[]</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,2,3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -621,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -658,7 +642,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -690,7 +674,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
@@ -730,7 +714,7 @@
         <v>14</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>13</v>
@@ -761,8 +745,8 @@
       <c r="G6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
+      <c r="H6" s="1">
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>178</v>
@@ -796,8 +780,8 @@
       <c r="G7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
+      <c r="H7" s="1">
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <v>179</v>
@@ -821,6 +805,9 @@
       <c r="E8" s="1"/>
       <c r="F8" s="6"/>
       <c r="G8" s="4"/>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -845,8 +832,8 @@
       <c r="G9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>33</v>
+      <c r="H9" s="1">
+        <v>1</v>
       </c>
       <c r="I9" s="1">
         <v>180</v>
@@ -880,8 +867,8 @@
       <c r="G10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>34</v>
+      <c r="H10" s="1">
+        <v>1</v>
       </c>
       <c r="I10" s="1">
         <v>181</v>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A2CCA5-03D7-48AF-B493-2C7D16F62037}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD46D25-77AE-4FD1-B11D-9EF80B71742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t>#</t>
   </si>
@@ -37,30 +37,12 @@
     <t>描述</t>
   </si>
   <si>
-    <t>位置</t>
-  </si>
-  <si>
-    <t>身高</t>
-  </si>
-  <si>
-    <t>体重</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
     <t>Desc</t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>Height</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -70,10 +52,6 @@
     <t>带有强力攻击技能</t>
   </si>
   <si>
-    <t>米克尔1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>米克尔2</t>
   </si>
   <si>
@@ -99,10 +77,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>A1填c或s决定整张表是前端还是后端</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>前端专属</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -127,6 +101,94 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家Unit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>痣姆鸽</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>严重拖更患者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大生命值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击伤害值</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageValue</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡怪物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱鸡宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>新兵宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>大师宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>英雄宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传奇宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>半神宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣灵宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>神灵宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>永生宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>创世宝鱼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>催更者鲍鱼哥</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -172,16 +234,15 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
-      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -227,10 +288,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -603,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:L10"/>
+  <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -616,33 +677,33 @@
     <col min="3" max="4" width="12.6640625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15.109375" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="28.77734375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="6.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="9.21875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.88671875" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.77734375" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
+      <c r="J2" s="5" t="s">
+        <v>14</v>
+      </c>
       <c r="K2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="C3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>2</v>
@@ -654,232 +715,560 @@
         <v>4</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="H5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="J5" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:11" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>16</v>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="K6" s="1">
-        <v>11</v>
-      </c>
-      <c r="L6" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100</v>
+      </c>
+      <c r="I7" s="1">
+        <v>10</v>
+      </c>
+      <c r="J7" s="1">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C8" s="1">
+        <v>1003</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="1">
+        <v>200</v>
+      </c>
+      <c r="I8" s="1">
+        <v>20</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C9" s="1">
+        <v>1004</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="1">
+        <v>300</v>
+      </c>
+      <c r="I9" s="1">
+        <v>30</v>
+      </c>
+      <c r="J9" s="1">
+        <v>11</v>
+      </c>
+      <c r="K9" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="1">
+        <v>1005</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="1">
+        <v>400</v>
+      </c>
+      <c r="I10" s="1">
+        <v>40</v>
+      </c>
+      <c r="J10" s="1">
+        <v>11</v>
+      </c>
+      <c r="K10" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C11" s="1">
+        <v>1006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="1">
+        <v>500</v>
+      </c>
+      <c r="I11" s="1">
+        <v>50</v>
+      </c>
+      <c r="J11" s="1">
+        <v>11</v>
+      </c>
+      <c r="K11" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>1007</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="1">
+        <v>600</v>
+      </c>
+      <c r="I12" s="1">
+        <v>60</v>
+      </c>
+      <c r="J12" s="1">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>1008</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" s="1">
+        <v>700</v>
+      </c>
+      <c r="I13" s="1">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1">
+        <v>11</v>
+      </c>
+      <c r="K13" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>1009</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="1">
+        <v>800</v>
+      </c>
+      <c r="I14" s="1">
+        <v>80</v>
+      </c>
+      <c r="J14" s="1">
+        <v>11</v>
+      </c>
+      <c r="K14" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="1">
+        <v>1010</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="1">
+        <v>900</v>
+      </c>
+      <c r="I15" s="1">
+        <v>90</v>
+      </c>
+      <c r="J15" s="1">
+        <v>11</v>
+      </c>
+      <c r="K15" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C16" s="1">
+        <v>1011</v>
+      </c>
+      <c r="D16" s="1">
+        <v>2</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="1">
+        <v>100</v>
+      </c>
+      <c r="J16" s="1">
+        <v>11</v>
+      </c>
+      <c r="K16" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C17" s="1">
+        <v>1012</v>
+      </c>
+      <c r="D17" s="1">
+        <v>2</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="1">
+        <v>110</v>
+      </c>
+      <c r="J17" s="1">
+        <v>11</v>
+      </c>
+      <c r="K17" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="C18" s="1">
+        <v>1013</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I18" s="1">
+        <v>120</v>
+      </c>
+      <c r="J18" s="1">
+        <v>11</v>
+      </c>
+      <c r="K18" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>111002</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>12</v>
+      </c>
+      <c r="K19" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B20" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B21" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="1">
+        <v>111003</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+      <c r="J21" s="1">
+        <v>13</v>
+      </c>
+      <c r="K21" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="1">
-        <v>1</v>
-      </c>
-      <c r="I7" s="1">
-        <v>179</v>
-      </c>
-      <c r="J7" s="1">
-        <v>69</v>
-      </c>
-      <c r="K7" s="1">
+      <c r="C22" s="1">
+        <v>111004</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="L7" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1003</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>180</v>
-      </c>
-      <c r="J9" s="1">
-        <v>70</v>
-      </c>
-      <c r="K9" s="1">
-        <v>13</v>
-      </c>
-      <c r="L9" s="1">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1004</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1">
-        <v>181</v>
-      </c>
-      <c r="J10" s="1">
-        <v>71</v>
-      </c>
-      <c r="K10" s="1">
+      <c r="G22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1">
         <v>14</v>
       </c>
-      <c r="L10" s="1">
+      <c r="K22" s="1">
         <v>24</v>
       </c>
     </row>

--- a/Excel/UnitConfig.xlsx
+++ b/Excel/UnitConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Unity\ETIdleGame\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD46D25-77AE-4FD1-B11D-9EF80B71742F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D396635C-C17B-4EA8-92D0-31DF4587ACA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -189,6 +189,26 @@
   </si>
   <si>
     <t>催更者鲍鱼哥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c预设物名</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PrefabName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knight</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaoYu</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -664,10 +684,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:K22"/>
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
@@ -679,26 +699,26 @@
     <col min="6" max="6" width="9.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.33203125" style="2" customWidth="1"/>
     <col min="8" max="8" width="9.21875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.77734375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="9" max="10" width="9.88671875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="6.77734375" style="2" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
@@ -720,14 +740,17 @@
       <c r="I3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="J3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L3" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
@@ -747,14 +770,17 @@
       <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
@@ -775,13 +801,16 @@
         <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="3:11" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="3:12" s="1" customFormat="1" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>1001</v>
       </c>
@@ -803,14 +832,17 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1">
         <v>11</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -832,14 +864,17 @@
       <c r="I7" s="1">
         <v>10</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="1">
         <v>11</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -861,14 +896,17 @@
       <c r="I8" s="1">
         <v>20</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="1">
         <v>11</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -890,14 +928,17 @@
       <c r="I9" s="1">
         <v>30</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="1">
         <v>11</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -919,14 +960,17 @@
       <c r="I10" s="1">
         <v>40</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="1">
         <v>11</v>
       </c>
-      <c r="K10" s="1">
+      <c r="L10" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -948,14 +992,17 @@
       <c r="I11" s="1">
         <v>50</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="1">
         <v>11</v>
       </c>
-      <c r="K11" s="1">
+      <c r="L11" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -977,14 +1024,17 @@
       <c r="I12" s="1">
         <v>60</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="1">
         <v>11</v>
       </c>
-      <c r="K12" s="1">
+      <c r="L12" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -1006,14 +1056,17 @@
       <c r="I13" s="1">
         <v>70</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="1">
         <v>11</v>
       </c>
-      <c r="K13" s="1">
+      <c r="L13" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -1035,14 +1088,17 @@
       <c r="I14" s="1">
         <v>80</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="1">
         <v>11</v>
       </c>
-      <c r="K14" s="1">
+      <c r="L14" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -1064,14 +1120,17 @@
       <c r="I15" s="1">
         <v>90</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K15" s="1">
         <v>11</v>
       </c>
-      <c r="K15" s="1">
+      <c r="L15" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="3:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -1093,14 +1152,17 @@
       <c r="I16" s="1">
         <v>100</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K16" s="1">
         <v>11</v>
       </c>
-      <c r="K16" s="1">
+      <c r="L16" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
@@ -1122,14 +1184,17 @@
       <c r="I17" s="1">
         <v>110</v>
       </c>
-      <c r="J17" s="1">
+      <c r="J17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K17" s="1">
         <v>11</v>
       </c>
-      <c r="K17" s="1">
+      <c r="L17" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1">
         <v>1013</v>
       </c>
@@ -1151,14 +1216,17 @@
       <c r="I18" s="1">
         <v>120</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="1">
         <v>11</v>
       </c>
-      <c r="K18" s="1">
+      <c r="L18" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="5" t="s">
         <v>13</v>
       </c>
@@ -1183,14 +1251,17 @@
       <c r="I19" s="1">
         <v>1</v>
       </c>
-      <c r="J19" s="1">
+      <c r="J19" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K19" s="1">
         <v>12</v>
       </c>
-      <c r="K19" s="1">
+      <c r="L19" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>21</v>
       </c>
@@ -1205,10 +1276,13 @@
       <c r="I20" s="1">
         <v>1</v>
       </c>
-      <c r="J20" s="1"/>
+      <c r="J20" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
@@ -1233,14 +1307,17 @@
       <c r="I21" s="1">
         <v>1</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="1">
         <v>13</v>
       </c>
-      <c r="K21" s="1">
+      <c r="L21" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>15</v>
       </c>
@@ -1265,10 +1342,13 @@
       <c r="I22" s="1">
         <v>1</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="K22" s="1">
         <v>14</v>
       </c>
-      <c r="K22" s="1">
+      <c r="L22" s="1">
         <v>24</v>
       </c>
     </row>
